--- a/biology/Médecine/Centre_médico-psycho-pédagogique/Centre_médico-psycho-pédagogique.xlsx
+++ b/biology/Médecine/Centre_médico-psycho-pédagogique/Centre_médico-psycho-pédagogique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dico-psycho-p%C3%A9dagogique</t>
+          <t>Centre_médico-psycho-pédagogique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les centres médico-psycho-pédagogiques (CMPP) sont des établissements médico-sociaux qui proposent des consultations et des soins ambulatoires à des enfants et des adolescents, en lien avec leur entourage familial. 
 Ils peuvent être gérés par des associations loi de 1901 de tailles très diverses, allant de l'association gérant un établissement à de grandes associations d'audience nationale (ex. : APF, APAJH, les PEP, Croix Rouge, Groupe SOS) mais également par des collectivités territoriales (municipalités, conseils départementaux) ou de grands organismes (SNCF, CAF ..)
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dico-psycho-p%C3%A9dagogique</t>
+          <t>Centre_médico-psycho-pédagogique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,12 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Équipe professionnelle
-Chaque CMPP comprend une équipe composée de médecins, psychomotriciens, orthophonistes, de psychologues, d’éducateurs, d'assistantes sociales et, dans le cadre de partenariats avec l'éducation nationale, de pédagogues ou psychopédagogues.
-Statut
-Comme le précise le rapport de la DREES, cité en note[1] « Ces structures se situent aux frontières du médico-social et de la psychiatrie ; elles proposent des prestations proches des centres de consultation de psychiatrie infanto-juvénile. » Les CMPP participent ainsi à la mise en œuvre de la politique de santé mentale en faveur des enfants et des adolescents, précisée dans la circulaire du 11 décembre 1992. Les CMPP sont régis par le Code de la santé publique et par l’annexe XXXII du décret du 9 mars 1956[2]. Leur financement est assuré par l’assurance maladie sous la forme d’un prix de séance dont la tarification est fixée par le directeur général de l’agence régionale de santé.
-Droits des enfants, adolescents et familles suivis
-Les enfants et adolescents ainsi que les membres de leur famille bénéficient des mêmes garanties du respect de leurs droits fondamentaux que les publics accueillis ou accompagnés dans les autres catégories d’ESSMS[3].
+          <t>Équipe professionnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque CMPP comprend une équipe composée de médecins, psychomotriciens, orthophonistes, de psychologues, d’éducateurs, d'assistantes sociales et, dans le cadre de partenariats avec l'éducation nationale, de pédagogues ou psychopédagogues.
 </t>
         </is>
       </c>
@@ -534,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dico-psycho-p%C3%A9dagogique</t>
+          <t>Centre_médico-psycho-pédagogique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +562,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le précise le rapport de la DREES, cité en note « Ces structures se situent aux frontières du médico-social et de la psychiatrie ; elles proposent des prestations proches des centres de consultation de psychiatrie infanto-juvénile. » Les CMPP participent ainsi à la mise en œuvre de la politique de santé mentale en faveur des enfants et des adolescents, précisée dans la circulaire du 11 décembre 1992. Les CMPP sont régis par le Code de la santé publique et par l’annexe XXXII du décret du 9 mars 1956. Leur financement est assuré par l’assurance maladie sous la forme d’un prix de séance dont la tarification est fixée par le directeur général de l’agence régionale de santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_médico-psycho-pédagogique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dico-psycho-p%C3%A9dagogique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Droits des enfants, adolescents et familles suivis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enfants et adolescents ainsi que les membres de leur famille bénéficient des mêmes garanties du respect de leurs droits fondamentaux que les publics accueillis ou accompagnés dans les autres catégories d’ESSMS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_médico-psycho-pédagogique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dico-psycho-p%C3%A9dagogique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pratique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La consultation au CMPP
-La consultation au CMPP est toujours une démarche libre des intéressés, enfants, parents, tuteurs légaux, même si elle a pu être conseillée ou impulsée par des tiers (intervenants, scolaires, médicaux, sociaux, entourage amical ou familial). Les difficultés présentées peuvent être psychologiques, psychopathologiques, relationnelles, psychosomatiques, scolaires, de communication ou de comportement, éducatives ou d'apprentissage (langage oral, écrit, maîtrise corporelle...).
-Les différentes phases du travail avec l'enfant et sa famille
-En général, après avoir pris rendez vous au CMPP, le patient et sa famille sont reçus par un consultant le plus souvent médecin pédo-psychiatre ou psychologue. Au cours de cette ou ces  premières consultations, sont évoqués les difficultés que rencontre l'enfant et le contexte dans lequel elles surviennent. Après un temps d'évaluation, qui peut être appuyé sur un certain nombre de bilans spécialisés, il pourra être proposé un projet thérapeutique articulé autour d'une ou plusieurs interventions spécialisées.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La consultation au CMPP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consultation au CMPP est toujours une démarche libre des intéressés, enfants, parents, tuteurs légaux, même si elle a pu être conseillée ou impulsée par des tiers (intervenants, scolaires, médicaux, sociaux, entourage amical ou familial). Les difficultés présentées peuvent être psychologiques, psychopathologiques, relationnelles, psychosomatiques, scolaires, de communication ou de comportement, éducatives ou d'apprentissage (langage oral, écrit, maîtrise corporelle...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_médico-psycho-pédagogique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dico-psycho-p%C3%A9dagogique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pratique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les différentes phases du travail avec l'enfant et sa famille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, après avoir pris rendez vous au CMPP, le patient et sa famille sont reçus par un consultant le plus souvent médecin pédo-psychiatre ou psychologue. Au cours de cette ou ces  premières consultations, sont évoqués les difficultés que rencontre l'enfant et le contexte dans lequel elles surviennent. Après un temps d'évaluation, qui peut être appuyé sur un certain nombre de bilans spécialisés, il pourra être proposé un projet thérapeutique articulé autour d'une ou plusieurs interventions spécialisées.
 Par exemple :
 une psychothérapie individuelle avec l'enfant ou l'adolescent, associée éventuellement à des entretiens avec le ou les parents.
 une psychothérapie familiale.
